--- a/Test_Input_Single_Be.xlsx
+++ b/Test_Input_Single_Be.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117D24DA-DB13-4147-9444-1E505F5DB803}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37FB750-D299-47C8-B675-731F2D0E80FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>Sample</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>CDF</t>
+  </si>
+  <si>
+    <t>CDF_err</t>
   </si>
 </sst>
 </file>
@@ -951,38 +954,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B805AF-634F-468E-AD2E-541576FB2895}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -990,16 +996,19 @@
         <v>0.5</v>
       </c>
       <c r="C2" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="9">
         <v>200</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" t="s">
         <v>48</v>

--- a/Test_Input_Single_Be.xlsx
+++ b/Test_Input_Single_Be.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7C1B62-5139-4FAA-864C-002CD414E7C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127DBAA9-97BE-4BD5-8ED7-7FC5BE0C6880}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10Be Cronus" sheetId="3" r:id="rId1"/>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="13">
-        <v>63299</v>
+        <v>64118</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -987,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B805AF-634F-468E-AD2E-541576FB2895}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>

--- a/Test_Input_Single_Be.xlsx
+++ b/Test_Input_Single_Be.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127DBAA9-97BE-4BD5-8ED7-7FC5BE0C6880}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA1539F-593E-41DA-B7A0-2650563C669C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10Be Cronus" sheetId="3" r:id="rId1"/>
@@ -207,7 +207,7 @@
     <t>st</t>
   </si>
   <si>
-    <t>requires either bedrock or soil composition OR CDF</t>
+    <t>requires either bedrock or soil composition</t>
   </si>
 </sst>
 </file>
@@ -658,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B805AF-634F-468E-AD2E-541576FB2895}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test_Input_Single_Be.xlsx
+++ b/Test_Input_Single_Be.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA1539F-593E-41DA-B7A0-2650563C669C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCF4CEA-0CC8-4DAE-9B2F-BAFEEF2BF48C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,7 +207,7 @@
     <t>st</t>
   </si>
   <si>
-    <t>requires either bedrock or soil composition</t>
+    <t>optional: If you want to compute the regolith composition, enter a bedrock composition and vice versa</t>
   </si>
 </sst>
 </file>
@@ -302,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -318,6 +318,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,7 +989,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,10 +1065,10 @@
       <c r="J2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="15">
         <v>50</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="15">
         <v>5</v>
       </c>
     </row>

--- a/Test_Input_Single_Be.xlsx
+++ b/Test_Input_Single_Be.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCF4CEA-0CC8-4DAE-9B2F-BAFEEF2BF48C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3032C3C9-F202-4835-BDED-7F42129E0811}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -989,7 +989,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test_Input_Single_Be.xlsx
+++ b/Test_Input_Single_Be.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3032C3C9-F202-4835-BDED-7F42129E0811}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56A2295-F08A-4375-8F9D-AC9C7676FEF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10Be Cronus" sheetId="3" r:id="rId1"/>
     <sheet name="Composition and other" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -195,9 +195,6 @@
     <t>scaling model (st,sf,sa…)</t>
   </si>
   <si>
-    <t>soil mass (g/cm2)</t>
-  </si>
-  <si>
     <t>Weathering rate (mm/ka)</t>
   </si>
   <si>
@@ -207,7 +204,10 @@
     <t>st</t>
   </si>
   <si>
-    <t>optional: If you want to compute the regolith composition, enter a bedrock composition and vice versa</t>
+    <t>regolith mass (g/cm2)</t>
+  </si>
+  <si>
+    <t>OPTIONAL: If you want to compute the regolith composition, enter a bedrock composition and vice versa</t>
   </si>
 </sst>
 </file>
@@ -241,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +257,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -319,6 +325,8 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,41 +664,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="22.5546875" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="17" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" customWidth="1"/>
+    <col min="32" max="32" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -791,7 +799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -894,7 +902,7 @@
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>40</v>
       </c>
@@ -910,13 +918,13 @@
       <c r="F3">
         <v>6.25E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="16">
         <v>2.6</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="16">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="16">
         <v>0</v>
       </c>
       <c r="J3" s="13">
@@ -931,17 +939,17 @@
       <c r="V3">
         <v>0.1</v>
       </c>
-      <c r="Y3" s="13">
+      <c r="Y3" s="17">
         <v>4300</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
         <v>55</v>
@@ -985,24 +993,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B805AF-634F-468E-AD2E-541576FB2895}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1033,7 @@
         <v>39</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>58</v>
@@ -1034,13 +1042,13 @@
         <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1060,7 +1068,7 @@
         <v>200</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>56</v>
@@ -1072,14 +1080,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>54</v>
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
         <v>63</v>

--- a/Test_Input_Single_Be.xlsx
+++ b/Test_Input_Single_Be.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37FB750-D299-47C8-B675-731F2D0E80FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB570876-BCBB-44E0-9515-ACEF80B2F086}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10Be Cronus" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="57">
   <si>
     <t>Sample</t>
   </si>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -287,6 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +900,7 @@
       <c r="V3">
         <v>0.1</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="12">
         <v>4300</v>
       </c>
     </row>
@@ -956,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B805AF-634F-468E-AD2E-541576FB2895}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/Test_Input_Single_Be.xlsx
+++ b/Test_Input_Single_Be.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20385"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56A2295-F08A-4375-8F9D-AC9C7676FEF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2451EDD3-981F-425E-A07B-34056E56C34B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10Be Cronus" sheetId="3" r:id="rId1"/>
@@ -667,38 +667,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="22.5546875" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="17" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.44140625" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -799,7 +799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>40</v>
       </c>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="13">
-        <v>64118</v>
+        <v>63814</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
         <v>55</v>
@@ -996,21 +996,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1080,14 +1080,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>54</v>
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
         <v>63</v>
